--- a/sales-invoice.xlsx
+++ b/sales-invoice.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -386,7 +386,19 @@
     <t>Graeme Brotherton</t>
   </si>
   <si>
-    <t>Company Number: 0000, VAT Number: TBA</t>
+    <t>Company Number: 10788816, VAT Number: TBA</t>
+  </si>
+  <si>
+    <t>W/C 26/06/2017</t>
+  </si>
+  <si>
+    <t>59 Wilmslow Road</t>
+  </si>
+  <si>
+    <t>Wilmslow</t>
+  </si>
+  <si>
+    <t>Cheshire, SK9 3EN</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1544,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1828,18 +1840,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="10" fontId="33" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1847,22 +1883,82 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1873,83 +1969,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1972,56 +2008,35 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="31" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2171,7 +2186,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2241,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2296,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2351,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,8 +2618,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:G43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2643,7 +2658,7 @@
         <v>109</v>
       </c>
       <c r="G2" s="46">
-        <v>42913</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2748,7 +2763,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -2759,7 +2774,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -2770,7 +2785,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2798,12 +2813,12 @@
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="75" t="s">
         <v>19</v>
       </c>
@@ -2838,11 +2853,11 @@
       <c r="A19" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="89">
         <v>5</v>
       </c>
@@ -2858,11 +2873,11 @@
       <c r="A20" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="89">
         <v>5</v>
       </c>
@@ -2875,22 +2890,30 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="119"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
+      <c r="A21" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="89">
+        <v>4</v>
+      </c>
+      <c r="F21" s="90">
+        <v>360</v>
+      </c>
       <c r="G21" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="119"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="89"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91">
@@ -2900,9 +2923,9 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="119"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91">
@@ -2912,9 +2935,9 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="119"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91">
@@ -2924,9 +2947,9 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="119"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91">
@@ -2936,9 +2959,9 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="119"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91">
@@ -2948,9 +2971,9 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="119"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91">
@@ -2960,9 +2983,9 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="119"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="89"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91">
@@ -2972,9 +2995,9 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="119"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="89"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91">
@@ -2984,9 +3007,9 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="119"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="89"/>
       <c r="F30" s="90"/>
       <c r="G30" s="91">
@@ -2996,9 +3019,9 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="119"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
       <c r="E31" s="89"/>
       <c r="F31" s="90"/>
       <c r="G31" s="91">
@@ -3008,9 +3031,9 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="120"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="132"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
       <c r="E32" s="93"/>
       <c r="F32" s="94"/>
       <c r="G32" s="95">
@@ -3019,10 +3042,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="138"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="50" t="s">
         <v>24</v>
       </c>
@@ -3031,48 +3054,48 @@
       </c>
       <c r="G33" s="56">
         <f>SUM(G18:G32)</f>
-        <v>5040</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="137"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="36"/>
       <c r="F34" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="191">
+      <c r="G34" s="129">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="137"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="36"/>
       <c r="F35" s="35" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="57">
         <f>G34*G33</f>
-        <v>1008</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="137"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="36"/>
       <c r="F36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="190">
+      <c r="G36" s="128">
         <f>G33+G35</f>
-        <v>6048</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3146,6 +3169,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A36:D36"/>
@@ -3160,16 +3193,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3449,11 +3472,11 @@
       <c r="E16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="140"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3462,9 +3485,9 @@
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
       <c r="J17" s="68" t="s">
         <v>65</v>
       </c>
@@ -3484,11 +3507,11 @@
       <c r="A19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="75" t="s">
         <v>19</v>
       </c>
@@ -3508,11 +3531,11 @@
         <f>IF(ISERROR(MATCH(B20,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B20,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="97">
         <v>15</v>
       </c>
@@ -3536,11 +3559,11 @@
         <f>IF(ISERROR(MATCH(B21,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B21,PriceList!A:A,0)))</f>
         <v>PC1221abc</v>
       </c>
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="101">
         <v>1</v>
       </c>
@@ -3562,11 +3585,11 @@
         <f>IF(ISERROR(MATCH(B22,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B22,PriceList!A:A,0)))</f>
         <v>PC1221def</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="101">
         <v>1</v>
       </c>
@@ -3588,11 +3611,11 @@
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B23,PriceList!A:A,0)))</f>
         <v>PC1221gh</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="101">
         <v>1</v>
       </c>
@@ -3614,9 +3637,9 @@
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B24,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -3634,9 +3657,9 @@
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B25,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -3654,9 +3677,9 @@
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B26,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -3674,9 +3697,9 @@
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="101"/>
       <c r="F27" s="102">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -3694,9 +3717,9 @@
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B28,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="101"/>
       <c r="F28" s="102">
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B28,PriceList!A:A,0)))</f>
@@ -3714,9 +3737,9 @@
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B29,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="101"/>
       <c r="F29" s="102">
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B29,PriceList!A:A,0)))</f>
@@ -3734,9 +3757,9 @@
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B30,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="101"/>
       <c r="F30" s="102">
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B30,PriceList!A:A,0)))</f>
@@ -3754,9 +3777,9 @@
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B31,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="101"/>
       <c r="F31" s="102">
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B31,PriceList!A:A,0)))</f>
@@ -3774,9 +3797,9 @@
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B32,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="144"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
       <c r="E32" s="101"/>
       <c r="F32" s="102">
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B32,PriceList!A:A,0)))</f>
@@ -3794,9 +3817,9 @@
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B33,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="101"/>
       <c r="F33" s="102">
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B33,PriceList!A:A,0)))</f>
@@ -3814,9 +3837,9 @@
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B34,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B34" s="150"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="152"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="105"/>
       <c r="F34" s="106">
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B34,PriceList!A:A,0)))</f>
@@ -3830,10 +3853,10 @@
       <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
@@ -3848,12 +3871,12 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="157"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="116"/>
       <c r="F36" s="112" t="s">
         <v>91</v>
@@ -3868,12 +3891,12 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="165" t="s">
+      <c r="A37" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="5"/>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -3887,12 +3910,12 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="161"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="149"/>
       <c r="E38" s="5"/>
       <c r="F38" s="11" t="s">
         <v>29</v>
@@ -3905,10 +3928,10 @@
       <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="160"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="161"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="149"/>
       <c r="E39" s="5"/>
       <c r="F39" s="11" t="s">
         <v>31</v>
@@ -3920,10 +3943,10 @@
       <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="160"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="161"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="149"/>
       <c r="E40" s="5"/>
       <c r="F40" s="15" t="s">
         <v>32</v>
@@ -3937,10 +3960,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="162"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="164"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="5"/>
       <c r="F41" s="16" t="s">
         <v>21</v>
@@ -3971,11 +3994,11 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="158" t="s">
+      <c r="F43" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
       <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3984,11 +4007,11 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="159" t="s">
+      <c r="F44" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="159"/>
-      <c r="H44" s="159"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
       <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3998,46 +4021,65 @@
       <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="154" t="s">
+      <c r="A46" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
       <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="154" t="s">
+      <c r="A47" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="154"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
       <c r="J47" s="67"/>
     </row>
     <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="153"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="141"/>
       <c r="J48" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
@@ -4049,25 +4091,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -4342,11 +4365,11 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="139" t="s">
+      <c r="F15" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4355,9 +4378,9 @@
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="178"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
@@ -4377,11 +4400,11 @@
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -4400,11 +4423,11 @@
       <c r="A19" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="97">
         <v>15</v>
       </c>
@@ -4426,11 +4449,11 @@
       <c r="A20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="101">
         <v>1</v>
       </c>
@@ -4448,9 +4471,9 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="100"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="101"/>
       <c r="F21" s="102"/>
       <c r="G21" s="114"/>
@@ -4462,9 +4485,9 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="100"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="101"/>
       <c r="F22" s="102"/>
       <c r="G22" s="114"/>
@@ -4476,9 +4499,9 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="100"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="101"/>
       <c r="F23" s="102"/>
       <c r="G23" s="114"/>
@@ -4490,9 +4513,9 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="100"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102"/>
       <c r="G24" s="114"/>
@@ -4504,9 +4527,9 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="100"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102"/>
       <c r="G25" s="114"/>
@@ -4518,9 +4541,9 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="100"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102"/>
       <c r="G26" s="114"/>
@@ -4532,9 +4555,9 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
       <c r="E27" s="105"/>
       <c r="F27" s="106"/>
       <c r="G27" s="115"/>
@@ -4545,10 +4568,10 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="174"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
       <c r="E28" s="19" t="s">
         <v>24</v>
       </c>
@@ -4563,12 +4586,12 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="118"/>
       <c r="F29" s="112" t="s">
         <v>91</v>
@@ -4583,12 +4606,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
         <v>27</v>
@@ -4602,12 +4625,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="161"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
         <v>29</v>
@@ -4620,10 +4643,10 @@
       <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="175"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
         <v>31</v>
@@ -4635,10 +4658,10 @@
       <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="175"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="15" t="s">
         <v>32</v>
@@ -4652,10 +4675,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="171"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="11"/>
       <c r="F34" s="16" t="s">
         <v>21</v>
@@ -4681,46 +4704,46 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="158" t="s">
+      <c r="F36" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
       <c r="J36" s="70"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="154" t="s">
+      <c r="A37" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="153" t="s">
+      <c r="A38" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
       <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4759,24 +4782,24 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
       <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="179" t="str">
+      <c r="A43" s="171" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="179"/>
+      <c r="B43" s="171"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4848,16 +4871,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -4874,6 +4887,16 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5086,11 +5109,11 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="139" t="s">
+      <c r="F15" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5099,9 +5122,9 @@
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
@@ -5113,11 +5136,11 @@
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -5137,11 +5160,11 @@
         <f>IF(ISERROR(MATCH(B19,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B19,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="189"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="188"/>
       <c r="E19" s="85">
         <v>15</v>
       </c>
@@ -5165,11 +5188,11 @@
         <f>IF(ISERROR(MATCH(B20,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B20,PriceList!A:A,0)))</f>
         <v>PC1221abc</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="89">
         <v>1</v>
       </c>
@@ -5191,11 +5214,11 @@
         <f>IF(ISERROR(MATCH(B21,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B21,PriceList!A:A,0)))</f>
         <v>PC1221def</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="89">
         <v>1</v>
       </c>
@@ -5217,11 +5240,11 @@
         <f>IF(ISERROR(MATCH(B22,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B22,PriceList!A:A,0)))</f>
         <v>PC1221gh</v>
       </c>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="89">
         <v>1</v>
       </c>
@@ -5243,9 +5266,9 @@
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B23,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B23" s="181"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90">
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B23,PriceList!A:A,0)))</f>
@@ -5263,9 +5286,9 @@
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B24,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -5283,9 +5306,9 @@
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B25,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -5303,9 +5326,9 @@
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B26,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -5323,9 +5346,9 @@
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="186"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
       <c r="E27" s="93"/>
       <c r="F27" s="94">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -5339,10 +5362,10 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="185"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -5357,12 +5380,12 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="117"/>
       <c r="F29" s="42" t="s">
         <v>91</v>
@@ -5377,12 +5400,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35" t="s">
         <v>27</v>
@@ -5396,12 +5419,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="161"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35" t="s">
         <v>29</v>
@@ -5414,10 +5437,10 @@
       <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="175"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35" t="s">
         <v>31</v>
@@ -5428,10 +5451,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="175"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="35"/>
       <c r="F33" s="40" t="s">
         <v>32</v>
@@ -5445,10 +5468,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="171"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="35"/>
       <c r="F34" s="41" t="s">
         <v>21</v>
@@ -5496,24 +5519,24 @@
       <c r="C37" s="134"/>
       <c r="D37" s="134"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="183" t="s">
+      <c r="F37" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
       <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -5550,24 +5573,24 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
       <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="182" t="str">
+      <c r="A43" s="189" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="182"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -5638,6 +5661,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -5654,16 +5687,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/sales-invoice.xlsx
+++ b/sales-invoice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="16155" windowHeight="10740"/>
+    <workbookView xWindow="7440" yWindow="1605" windowWidth="16155" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice1a" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
@@ -724,8 +724,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +858,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1544,7 +1558,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1849,38 +1863,80 @@
     <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="33" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1927,47 +1983,35 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,39 +2022,21 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,17 +2052,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2186,7 +2203,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2258,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2313,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2368,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2627,19 +2644,19 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
       <c r="E1" s="5"/>
       <c r="F1" s="2"/>
       <c r="G1" s="44" t="s">
@@ -2658,7 +2675,7 @@
         <v>109</v>
       </c>
       <c r="G2" s="46">
-        <v>42916</v>
+        <v>42919</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2813,12 +2830,12 @@
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="75" t="s">
         <v>19</v>
       </c>
@@ -3031,9 +3048,9 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="120"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="93"/>
       <c r="F32" s="94"/>
       <c r="G32" s="95">
@@ -3042,10 +3059,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
       <c r="E33" s="50" t="s">
         <v>24</v>
       </c>
@@ -3058,10 +3075,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="36"/>
       <c r="F34" s="35" t="s">
         <v>99</v>
@@ -3071,10 +3088,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="36"/>
       <c r="F35" s="35" t="s">
         <v>100</v>
@@ -3085,10 +3102,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="36"/>
       <c r="F36" s="41" t="s">
         <v>21</v>
@@ -3113,17 +3130,17 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="135" t="s">
+      <c r="F38" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="135"/>
+      <c r="G38" s="137"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E39" s="36"/>
-      <c r="F39" s="136" t="s">
+      <c r="F39" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="136"/>
+      <c r="G39" s="138"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
@@ -3135,50 +3152,41 @@
       <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
+  <mergeCells count="25">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A36:D36"/>
@@ -3193,6 +3201,16 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3472,11 +3490,11 @@
       <c r="E16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="167" t="s">
+      <c r="F16" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3485,9 +3503,9 @@
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
       <c r="J17" s="68" t="s">
         <v>65</v>
       </c>
@@ -3507,11 +3525,11 @@
       <c r="A19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="75" t="s">
         <v>19</v>
       </c>
@@ -3531,11 +3549,11 @@
         <f>IF(ISERROR(MATCH(B20,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B20,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="97">
         <v>15</v>
       </c>
@@ -3559,11 +3577,11 @@
         <f>IF(ISERROR(MATCH(B21,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B21,PriceList!A:A,0)))</f>
         <v>PC1221abc</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="101">
         <v>1</v>
       </c>
@@ -3585,11 +3603,11 @@
         <f>IF(ISERROR(MATCH(B22,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B22,PriceList!A:A,0)))</f>
         <v>PC1221def</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="101">
         <v>1</v>
       </c>
@@ -3611,11 +3629,11 @@
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B23,PriceList!A:A,0)))</f>
         <v>PC1221gh</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="101">
         <v>1</v>
       </c>
@@ -3637,9 +3655,9 @@
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B24,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -3657,9 +3675,9 @@
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B25,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -3677,9 +3695,9 @@
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B26,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="163"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="146"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -3697,9 +3715,9 @@
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="101"/>
       <c r="F27" s="102">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -3717,9 +3735,9 @@
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B28,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="163"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="146"/>
       <c r="E28" s="101"/>
       <c r="F28" s="102">
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B28,PriceList!A:A,0)))</f>
@@ -3737,9 +3755,9 @@
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B29,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
       <c r="E29" s="101"/>
       <c r="F29" s="102">
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B29,PriceList!A:A,0)))</f>
@@ -3757,9 +3775,9 @@
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B30,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="163"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="101"/>
       <c r="F30" s="102">
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B30,PriceList!A:A,0)))</f>
@@ -3777,9 +3795,9 @@
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B31,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="101"/>
       <c r="F31" s="102">
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B31,PriceList!A:A,0)))</f>
@@ -3797,9 +3815,9 @@
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B32,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
       <c r="E32" s="101"/>
       <c r="F32" s="102">
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B32,PriceList!A:A,0)))</f>
@@ -3817,9 +3835,9 @@
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B33,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
       <c r="E33" s="101"/>
       <c r="F33" s="102">
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B33,PriceList!A:A,0)))</f>
@@ -3837,9 +3855,9 @@
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B34,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="166"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="154"/>
       <c r="E34" s="105"/>
       <c r="F34" s="106">
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B34,PriceList!A:A,0)))</f>
@@ -3853,10 +3871,10 @@
       <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="156"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
@@ -3871,12 +3889,12 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="145"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="159"/>
       <c r="E36" s="116"/>
       <c r="F36" s="112" t="s">
         <v>91</v>
@@ -3891,12 +3909,12 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="155"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="5"/>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -3910,12 +3928,12 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="149"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="5"/>
       <c r="F38" s="11" t="s">
         <v>29</v>
@@ -3928,10 +3946,10 @@
       <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="149"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="5"/>
       <c r="F39" s="11" t="s">
         <v>31</v>
@@ -3943,10 +3961,10 @@
       <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="148"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="149"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="5"/>
       <c r="F40" s="15" t="s">
         <v>32</v>
@@ -3960,10 +3978,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="150"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="152"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="5"/>
       <c r="F41" s="16" t="s">
         <v>21</v>
@@ -3994,11 +4012,11 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="146" t="s">
+      <c r="F43" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
       <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4007,11 +4025,11 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="147" t="s">
+      <c r="F44" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
       <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4021,65 +4039,46 @@
       <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="142" t="s">
+      <c r="A46" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
       <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="142" t="s">
+      <c r="A47" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
       <c r="J47" s="67"/>
     </row>
     <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="141" t="s">
+      <c r="A48" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="141"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
       <c r="J48" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
@@ -4091,6 +4090,25 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -4365,11 +4383,11 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4378,9 +4396,9 @@
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="178"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
@@ -4400,11 +4418,11 @@
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -4423,11 +4441,11 @@
       <c r="A19" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="97">
         <v>15</v>
       </c>
@@ -4449,11 +4467,11 @@
       <c r="A20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="163"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="101">
         <v>1</v>
       </c>
@@ -4471,9 +4489,9 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="100"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="101"/>
       <c r="F21" s="102"/>
       <c r="G21" s="114"/>
@@ -4485,9 +4503,9 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="100"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="101"/>
       <c r="F22" s="102"/>
       <c r="G22" s="114"/>
@@ -4499,9 +4517,9 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="100"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="101"/>
       <c r="F23" s="102"/>
       <c r="G23" s="114"/>
@@ -4513,9 +4531,9 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="100"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102"/>
       <c r="G24" s="114"/>
@@ -4527,9 +4545,9 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="100"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102"/>
       <c r="G25" s="114"/>
@@ -4541,9 +4559,9 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="100"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="163"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="146"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102"/>
       <c r="G26" s="114"/>
@@ -4555,9 +4573,9 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="154"/>
       <c r="E27" s="105"/>
       <c r="F27" s="106"/>
       <c r="G27" s="115"/>
@@ -4568,10 +4586,10 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
+      <c r="A28" s="176"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="19" t="s">
         <v>24</v>
       </c>
@@ -4586,12 +4604,12 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159"/>
       <c r="E29" s="118"/>
       <c r="F29" s="112" t="s">
         <v>91</v>
@@ -4606,12 +4624,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
         <v>27</v>
@@ -4625,12 +4643,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="148" t="s">
+      <c r="A31" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="149"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
         <v>29</v>
@@ -4643,10 +4661,10 @@
       <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
+      <c r="A32" s="177"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
         <v>31</v>
@@ -4658,10 +4676,10 @@
       <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="11"/>
       <c r="F33" s="15" t="s">
         <v>32</v>
@@ -4675,10 +4693,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="181"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="11"/>
       <c r="F34" s="16" t="s">
         <v>21</v>
@@ -4704,46 +4722,46 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="146" t="s">
+      <c r="F36" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
       <c r="J36" s="70"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="172" t="s">
+      <c r="F37" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="182"/>
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
       <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4782,24 +4800,24 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
       <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="171" t="str">
+      <c r="A43" s="181" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="171"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4871,6 +4889,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -4887,16 +4915,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5109,11 +5127,11 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5122,9 +5140,9 @@
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
@@ -5136,11 +5154,11 @@
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -5160,11 +5178,11 @@
         <f>IF(ISERROR(MATCH(B19,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B19,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="188"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="85">
         <v>15</v>
       </c>
@@ -5346,9 +5364,9 @@
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="93"/>
       <c r="F27" s="94">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -5362,10 +5380,10 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -5380,12 +5398,12 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159"/>
       <c r="E29" s="117"/>
       <c r="F29" s="42" t="s">
         <v>91</v>
@@ -5400,12 +5418,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35" t="s">
         <v>27</v>
@@ -5419,12 +5437,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="148" t="s">
+      <c r="A31" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="149"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35" t="s">
         <v>29</v>
@@ -5437,10 +5455,10 @@
       <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
+      <c r="A32" s="177"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35" t="s">
         <v>31</v>
@@ -5451,10 +5469,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="35"/>
       <c r="F33" s="40" t="s">
         <v>32</v>
@@ -5468,10 +5486,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="181"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="35"/>
       <c r="F34" s="41" t="s">
         <v>21</v>
@@ -5497,46 +5515,46 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="134" t="s">
+      <c r="F36" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
       <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="191" t="s">
+      <c r="F37" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="190" t="s">
+      <c r="A38" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="190"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
       <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -5573,24 +5591,24 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="192" t="s">
+      <c r="A42" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
       <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="189" t="str">
+      <c r="A43" s="184" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="189"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -5661,16 +5679,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -5687,6 +5695,16 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/sales-invoice.xlsx
+++ b/sales-invoice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1605" windowWidth="16155" windowHeight="10740"/>
+    <workbookView xWindow="7440" yWindow="1608" windowWidth="16152" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice1a" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="125">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>Cheshire, SK9 3EN</t>
+  </si>
+  <si>
+    <t>Please PAY TO Distributed IT Systems Limited</t>
+  </si>
+  <si>
+    <t>Sortcode: 40-40-24 Account Number: 62266768</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1564,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1863,38 +1869,113 @@
     <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="33" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1905,83 +1986,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2004,27 +2025,24 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2037,23 +2055,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2203,7 +2206,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2261,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2316,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2371,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,35 +2638,35 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A1" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="5"/>
       <c r="F1" s="2"/>
       <c r="G1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>102</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>103</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="E4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>105</v>
       </c>
@@ -2714,7 +2717,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>106</v>
       </c>
@@ -2725,7 +2728,7 @@
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>107</v>
       </c>
@@ -2736,7 +2739,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -2745,7 +2748,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="73" t="s">
         <v>111</v>
       </c>
@@ -2756,7 +2759,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>117</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>116</v>
       </c>
@@ -2778,7 +2781,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>120</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>121</v>
       </c>
@@ -2800,7 +2803,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>122</v>
       </c>
@@ -2811,7 +2814,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2820,7 +2823,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2829,13 +2832,13 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="75" t="s">
         <v>19</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="121" t="s">
         <v>113</v>
       </c>
@@ -2866,15 +2869,15 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="89">
         <v>5</v>
       </c>
@@ -2886,15 +2889,15 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="89">
         <v>5</v>
       </c>
@@ -2906,15 +2909,15 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="89">
         <v>4</v>
       </c>
@@ -2926,11 +2929,11 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="119"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="89"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91">
@@ -2938,11 +2941,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="119"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91">
@@ -2950,11 +2953,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="119"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91">
@@ -2962,11 +2965,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="119"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91">
@@ -2974,11 +2977,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="119"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91">
@@ -2986,11 +2989,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="119"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91">
@@ -2998,11 +3001,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="119"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="133"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="89"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91">
@@ -3010,11 +3013,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="119"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="89"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91">
@@ -3022,11 +3025,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="119"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="89"/>
       <c r="F30" s="90"/>
       <c r="G30" s="91">
@@ -3034,11 +3037,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="119"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="89"/>
       <c r="F31" s="90"/>
       <c r="G31" s="91">
@@ -3046,11 +3049,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="120"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="93"/>
       <c r="F32" s="94"/>
       <c r="G32" s="95">
@@ -3058,11 +3061,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="50" t="s">
         <v>24</v>
       </c>
@@ -3074,11 +3077,11 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="139"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="131"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="36"/>
       <c r="F34" s="35" t="s">
         <v>99</v>
@@ -3087,11 +3090,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="139"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
+    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="131"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="36"/>
       <c r="F35" s="35" t="s">
         <v>100</v>
@@ -3101,11 +3104,11 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="139"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
+    <row r="36" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="131"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
       <c r="E36" s="36"/>
       <c r="F36" s="41" t="s">
         <v>21</v>
@@ -3115,7 +3118,7 @@
         <v>7776</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3124,25 +3127,29 @@
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="137"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="36"/>
-      <c r="F39" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="138"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="192" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="192" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3151,41 +3158,50 @@
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="136" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="136" t="s">
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="136" t="s">
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A34:D34"/>
@@ -3201,16 +3217,7 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3228,20 +3235,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -3273,7 +3280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
@@ -3307,7 +3314,7 @@
       </c>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>59</v>
       </c>
@@ -3337,7 +3344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -3350,7 +3357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -3361,7 +3368,7 @@
       <c r="H8" s="36"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
@@ -3395,7 +3402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>54</v>
       </c>
@@ -3427,7 +3434,7 @@
       <c r="H12" s="36"/>
       <c r="J12" s="67"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>10</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -3474,7 +3481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="77" t="s">
         <v>11</v>
       </c>
@@ -3490,27 +3497,27 @@
       <c r="E16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="167"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
       <c r="J17" s="68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3521,15 +3528,15 @@
       <c r="H18" s="36"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="75" t="s">
         <v>19</v>
       </c>
@@ -3544,16 +3551,16 @@
       </c>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="96" t="str">
         <f>IF(ISERROR(MATCH(B20,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B20,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
       <c r="E20" s="97">
         <v>15</v>
       </c>
@@ -3572,16 +3579,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="100" t="str">
         <f>IF(ISERROR(MATCH(B21,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B21,PriceList!A:A,0)))</f>
         <v>PC1221abc</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="101">
         <v>1</v>
       </c>
@@ -3598,16 +3605,16 @@
       </c>
       <c r="J21" s="67"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="100" t="str">
         <f>IF(ISERROR(MATCH(B22,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B22,PriceList!A:A,0)))</f>
         <v>PC1221def</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="101">
         <v>1</v>
       </c>
@@ -3624,16 +3631,16 @@
       </c>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="100" t="str">
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B23,PriceList!A:A,0)))</f>
         <v>PC1221gh</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="101">
         <v>1</v>
       </c>
@@ -3650,14 +3657,14 @@
       </c>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="100" t="str">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B24,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -3670,14 +3677,14 @@
       </c>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="100" t="str">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B25,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -3690,14 +3697,14 @@
       </c>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="100" t="str">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B26,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="162"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -3710,14 +3717,14 @@
       </c>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="100" t="str">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
       <c r="E27" s="101"/>
       <c r="F27" s="102">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -3730,14 +3737,14 @@
       </c>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="100" t="str">
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B28,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="162"/>
       <c r="E28" s="101"/>
       <c r="F28" s="102">
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B28,PriceList!A:A,0)))</f>
@@ -3750,14 +3757,14 @@
       </c>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="100" t="str">
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B29,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="162"/>
       <c r="E29" s="101"/>
       <c r="F29" s="102">
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B29,PriceList!A:A,0)))</f>
@@ -3770,14 +3777,14 @@
       </c>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="100" t="str">
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B30,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="146"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="101"/>
       <c r="F30" s="102">
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B30,PriceList!A:A,0)))</f>
@@ -3790,14 +3797,14 @@
       </c>
       <c r="J30" s="67"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="100" t="str">
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B31,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="101"/>
       <c r="F31" s="102">
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B31,PriceList!A:A,0)))</f>
@@ -3810,14 +3817,14 @@
       </c>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="100" t="str">
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B32,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="146"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="162"/>
       <c r="E32" s="101"/>
       <c r="F32" s="102">
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B32,PriceList!A:A,0)))</f>
@@ -3830,14 +3837,14 @@
       </c>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="100" t="str">
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B33,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="162"/>
       <c r="E33" s="101"/>
       <c r="F33" s="102">
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B33,PriceList!A:A,0)))</f>
@@ -3850,14 +3857,14 @@
       </c>
       <c r="J33" s="67"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="104" t="str">
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B34,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="154"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="105"/>
       <c r="F34" s="106">
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B34,PriceList!A:A,0)))</f>
@@ -3870,11 +3877,11 @@
       </c>
       <c r="J34" s="67"/>
     </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="147"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="155"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
@@ -3888,13 +3895,13 @@
       </c>
       <c r="J35" s="67"/>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="157" t="s">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="159"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="116"/>
       <c r="F36" s="112" t="s">
         <v>91</v>
@@ -3908,13 +3915,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="167" t="s">
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="154"/>
       <c r="E37" s="5"/>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -3927,13 +3934,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162" t="s">
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="163"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="5"/>
       <c r="F38" s="11" t="s">
         <v>29</v>
@@ -3945,11 +3952,11 @@
       </c>
       <c r="J38" s="69"/>
     </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="163"/>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="147"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="5"/>
       <c r="F39" s="11" t="s">
         <v>31</v>
@@ -3960,11 +3967,11 @@
       </c>
       <c r="J39" s="67"/>
     </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="162"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="163"/>
+    <row r="40" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="147"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="5"/>
       <c r="F40" s="15" t="s">
         <v>32</v>
@@ -3977,11 +3984,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="164"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="166"/>
+    <row r="41" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="149"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="5"/>
       <c r="F41" s="16" t="s">
         <v>21</v>
@@ -3995,7 +4002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4006,79 +4013,98 @@
       <c r="H42" s="11"/>
       <c r="J42" s="67"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="160" t="s">
+      <c r="F43" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="161" t="s">
+      <c r="F44" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="156" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="156" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="141"/>
       <c r="J47" s="67"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="155" t="s">
+    <row r="48" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A48" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="155"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
       <c r="J48" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
@@ -4090,25 +4116,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -4135,20 +4142,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -4181,7 +4188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
@@ -4217,7 +4224,7 @@
       </c>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>59</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -4260,7 +4267,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
@@ -4275,7 +4282,7 @@
       <c r="H8" s="36"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
@@ -4290,7 +4297,7 @@
       <c r="H9" s="36"/>
       <c r="J9" s="67"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4312,7 @@
       <c r="H10" s="36"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>54</v>
       </c>
@@ -4320,7 +4327,7 @@
       <c r="H11" s="36"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -4354,7 +4361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4367,7 +4374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="77" t="s">
         <v>11</v>
       </c>
@@ -4383,27 +4390,27 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="177"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -4414,15 +4421,15 @@
       <c r="H17" s="36"/>
       <c r="J17" s="67"/>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -4437,15 +4444,15 @@
       </c>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="97">
         <v>15</v>
       </c>
@@ -4463,15 +4470,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="162"/>
       <c r="E20" s="101">
         <v>1</v>
       </c>
@@ -4487,11 +4494,11 @@
       </c>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="100"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="101"/>
       <c r="F21" s="102"/>
       <c r="G21" s="114"/>
@@ -4501,11 +4508,11 @@
       </c>
       <c r="J21" s="67"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="100"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="101"/>
       <c r="F22" s="102"/>
       <c r="G22" s="114"/>
@@ -4515,11 +4522,11 @@
       </c>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="100"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="101"/>
       <c r="F23" s="102"/>
       <c r="G23" s="114"/>
@@ -4529,11 +4536,11 @@
       </c>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="100"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102"/>
       <c r="G24" s="114"/>
@@ -4543,11 +4550,11 @@
       </c>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="100"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102"/>
       <c r="G25" s="114"/>
@@ -4557,11 +4564,11 @@
       </c>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="100"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="162"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102"/>
       <c r="G26" s="114"/>
@@ -4571,11 +4578,11 @@
       </c>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="104"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="105"/>
       <c r="F27" s="106"/>
       <c r="G27" s="115"/>
@@ -4585,11 +4592,11 @@
       </c>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="176"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="181"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
       <c r="E28" s="19" t="s">
         <v>24</v>
       </c>
@@ -4603,13 +4610,13 @@
       </c>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="157" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="118"/>
       <c r="F29" s="112" t="s">
         <v>91</v>
@@ -4623,13 +4630,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167" t="s">
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="169"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="154"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
         <v>27</v>
@@ -4642,13 +4649,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162" t="s">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
         <v>29</v>
@@ -4660,11 +4667,11 @@
       </c>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="172"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
         <v>31</v>
@@ -4675,11 +4682,11 @@
       </c>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="177"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="179"/>
+    <row r="33" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="172"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="11"/>
       <c r="F33" s="15" t="s">
         <v>32</v>
@@ -4692,11 +4699,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="173"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
+    <row r="34" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="178"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="11"/>
       <c r="F34" s="16" t="s">
         <v>21</v>
@@ -4710,7 +4717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4721,50 +4728,50 @@
       <c r="H35" s="11"/>
       <c r="J35" s="67"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="156" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="160" t="s">
+      <c r="F36" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
       <c r="J36" s="70"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="156" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="182" t="s">
+      <c r="F37" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="182"/>
-      <c r="H37" s="182"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
       <c r="J37" s="69"/>
     </row>
-    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="155" t="s">
+    <row r="38" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A38" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4775,7 +4782,7 @@
       <c r="H39" s="11"/>
       <c r="J39" s="70"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>40</v>
       </c>
@@ -4788,7 +4795,7 @@
       <c r="H40" s="18"/>
       <c r="J40" s="70"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4799,25 +4806,25 @@
       <c r="H41" s="11"/>
       <c r="J41" s="67"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="180" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="169"/>
       <c r="J42" s="67"/>
     </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="181" t="str">
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="170" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="181"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4827,7 +4834,7 @@
       <c r="H43" s="31"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
         <v>54</v>
       </c>
@@ -4844,7 +4851,7 @@
       </c>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>5</v>
       </c>
@@ -4861,7 +4868,7 @@
       </c>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>6</v>
       </c>
@@ -4873,7 +4880,7 @@
       <c r="H46" s="35"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>7</v>
       </c>
@@ -4889,16 +4896,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -4915,6 +4912,16 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4936,20 +4943,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="36" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +4971,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -5007,7 +5014,7 @@
       </c>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5089,7 @@
       <c r="E11" s="49"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
@@ -5093,7 +5100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -5104,7 +5111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="D14" s="35"/>
       <c r="J14" s="62" t="s">
@@ -5127,22 +5134,22 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
@@ -5154,11 +5161,11 @@
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -5173,16 +5180,16 @@
       </c>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="84" t="str">
         <f>IF(ISERROR(MATCH(B19,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B19,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
       <c r="E19" s="85">
         <v>15</v>
       </c>
@@ -5206,11 +5213,11 @@
         <f>IF(ISERROR(MATCH(B20,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B20,PriceList!A:A,0)))</f>
         <v>PC1221abc</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="89">
         <v>1</v>
       </c>
@@ -5232,11 +5239,11 @@
         <f>IF(ISERROR(MATCH(B21,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B21,PriceList!A:A,0)))</f>
         <v>PC1221def</v>
       </c>
-      <c r="B21" s="183" t="s">
+      <c r="B21" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="89">
         <v>1</v>
       </c>
@@ -5258,11 +5265,11 @@
         <f>IF(ISERROR(MATCH(B22,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B22,PriceList!A:A,0)))</f>
         <v>PC1221gh</v>
       </c>
-      <c r="B22" s="183" t="s">
+      <c r="B22" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="89">
         <v>1</v>
       </c>
@@ -5284,9 +5291,9 @@
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B23,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B23" s="183"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90">
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B23,PriceList!A:A,0)))</f>
@@ -5304,9 +5311,9 @@
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B24,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B24" s="183"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -5324,9 +5331,9 @@
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B25,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -5344,9 +5351,9 @@
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B26,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="183"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -5364,9 +5371,9 @@
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="189"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
       <c r="E27" s="93"/>
       <c r="F27" s="94">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -5380,10 +5387,10 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -5397,13 +5404,13 @@
       </c>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="157" t="s">
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="117"/>
       <c r="F29" s="42" t="s">
         <v>91</v>
@@ -5417,13 +5424,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167" t="s">
+    <row r="30" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="169"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="154"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35" t="s">
         <v>27</v>
@@ -5437,12 +5444,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35" t="s">
         <v>29</v>
@@ -5454,11 +5461,11 @@
       </c>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="172"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35" t="s">
         <v>31</v>
@@ -5468,11 +5475,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="177"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="179"/>
+    <row r="33" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="172"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="35"/>
       <c r="F33" s="40" t="s">
         <v>32</v>
@@ -5485,11 +5492,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="173"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
+    <row r="34" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="178"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="35"/>
       <c r="F34" s="41" t="s">
         <v>21</v>
@@ -5503,7 +5510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5515,49 +5522,49 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="136" t="s">
+      <c r="F36" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
       <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="186" t="s">
+      <c r="F37" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
       <c r="J37" s="69"/>
     </row>
-    <row r="38" spans="1:10" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="185" t="s">
+    <row r="38" spans="1:10" s="36" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A38" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="185"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -5567,7 +5574,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>40</v>
       </c>
@@ -5579,7 +5586,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5591,24 +5598,24 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
       <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="184" t="str">
+      <c r="A43" s="188" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="184"/>
+      <c r="B43" s="188"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -5618,7 +5625,7 @@
       <c r="H43" s="31"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
         <v>54</v>
       </c>
@@ -5635,7 +5642,7 @@
       </c>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>5</v>
       </c>
@@ -5652,7 +5659,7 @@
       </c>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>6</v>
       </c>
@@ -5664,7 +5671,7 @@
       <c r="H46" s="35"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>7</v>
       </c>
@@ -5679,6 +5686,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -5695,16 +5712,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -5728,15 +5735,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
         <v>44</v>
       </c>
@@ -5750,13 +5757,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
       <c r="E2" s="70"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -5770,7 +5777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -5784,7 +5791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -5812,7 +5819,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -5820,7 +5827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -5828,7 +5835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -5836,7 +5843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -5844,160 +5851,160 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="70"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="E12" s="70"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="E13" s="70"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -6016,167 +6023,167 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="28" customWidth="1"/>
     <col min="2" max="2" width="76" style="28" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="24"/>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="29" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="25"/>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="25"/>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="25"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="25"/>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="25"/>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="124" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="27"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="125" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>

--- a/sales-invoice.xlsx
+++ b/sales-invoice.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maureen\Documents\Vuze Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1608" windowWidth="16152" windowHeight="10740"/>
+    <workbookView xWindow="7440" yWindow="1605" windowWidth="16155" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice1a" sheetId="1" r:id="rId1"/>
@@ -25,12 +30,12 @@
     <definedName name="vertex42_id" hidden="1">"sales-invoice.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Sales Invoice Template"</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="125">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -410,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1564,7 +1569,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1845,218 +1850,233 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="31" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2206,7 +2226,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2281,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2336,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2391,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,35 +2658,35 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="5"/>
       <c r="F1" s="2"/>
       <c r="G1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>102</v>
       </c>
@@ -2674,14 +2694,14 @@
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="124" t="s">
         <v>109</v>
       </c>
       <c r="G2" s="46">
         <v>42919</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>103</v>
       </c>
@@ -2689,14 +2709,14 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="124" t="s">
         <v>110</v>
       </c>
       <c r="G3" s="47">
         <v>1000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2706,7 +2726,7 @@
       <c r="E4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>105</v>
       </c>
@@ -2717,7 +2737,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>106</v>
       </c>
@@ -2728,7 +2748,7 @@
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>107</v>
       </c>
@@ -2739,7 +2759,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -2748,7 +2768,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
         <v>111</v>
       </c>
@@ -2759,7 +2779,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>117</v>
       </c>
@@ -2770,7 +2790,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>116</v>
       </c>
@@ -2781,7 +2801,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>120</v>
       </c>
@@ -2792,7 +2812,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>121</v>
       </c>
@@ -2803,7 +2823,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>122</v>
       </c>
@@ -2814,7 +2834,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2823,7 +2843,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2832,240 +2852,216 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="136" t="s">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="85">
-        <v>4</v>
-      </c>
-      <c r="F18" s="86">
-        <v>360</v>
-      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="87">
-        <f t="shared" ref="G18:G32" si="0">E18*F18</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1462.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="89">
-        <v>5</v>
-      </c>
-      <c r="F19" s="90">
-        <v>360</v>
-      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
       <c r="G19" s="91">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1698.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="89">
-        <v>5</v>
-      </c>
-      <c r="F20" s="90">
-        <v>360</v>
-      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="195"/>
       <c r="G20" s="91">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="127" t="s">
+        <v>1460.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="89">
-        <v>4</v>
-      </c>
-      <c r="F21" s="90">
-        <v>360</v>
-      </c>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="195"/>
       <c r="G21" s="91">
-        <f t="shared" si="0"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1271.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="119"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="195"/>
       <c r="G22" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G18:G32" si="0">E22*F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="119"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="195"/>
       <c r="G23" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="119"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="195"/>
       <c r="G24" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="119"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
       <c r="G25" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="119"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="195"/>
       <c r="G26" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="119"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="195"/>
       <c r="G27" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="119"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="195"/>
       <c r="G28" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="119"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="195"/>
       <c r="G29" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="119"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
       <c r="G30" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="119"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="195"/>
       <c r="G31" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="120"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="50" t="s">
         <v>24</v>
       </c>
@@ -3074,51 +3070,51 @@
       </c>
       <c r="G33" s="56">
         <f>SUM(G18:G32)</f>
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="131"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
+        <v>5892.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="136"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
       <c r="E34" s="36"/>
       <c r="F34" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="129">
+      <c r="G34" s="127">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="131"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
+    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="136"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="36"/>
       <c r="F35" s="35" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="57">
         <f>G34*G33</f>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="131"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
+        <v>1178.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="136"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
       <c r="E36" s="36"/>
       <c r="F36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="128">
+      <c r="G36" s="126">
         <f>G33+G35</f>
-        <v>7776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7071.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3127,29 +3123,29 @@
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="192" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="192" t="s">
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3158,47 +3154,44 @@
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="135" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="135" t="s">
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="135" t="s">
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A42:G42"/>
@@ -3215,9 +3208,12 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A38:G38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3235,20 +3231,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -3280,7 +3276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +3294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
@@ -3314,7 +3310,7 @@
       </c>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -3329,7 +3325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -3357,7 +3353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -3368,7 +3364,7 @@
       <c r="H8" s="36"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>54</v>
       </c>
@@ -3434,7 +3430,7 @@
       <c r="H12" s="36"/>
       <c r="J12" s="67"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>5</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>10</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -3481,7 +3477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>11</v>
       </c>
@@ -3497,27 +3493,27 @@
       <c r="E16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="166" t="s">
+      <c r="F16" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="166"/>
-      <c r="H16" s="167"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
       <c r="J17" s="68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3528,15 +3524,15 @@
       <c r="H18" s="36"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="75" t="s">
         <v>19</v>
       </c>
@@ -3551,16 +3547,16 @@
       </c>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="str">
         <f>IF(ISERROR(MATCH(B20,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B20,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
       <c r="E20" s="97">
         <v>15</v>
       </c>
@@ -3579,16 +3575,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="100" t="str">
         <f>IF(ISERROR(MATCH(B21,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B21,PriceList!A:A,0)))</f>
         <v>PC1221abc</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="162"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="101">
         <v>1</v>
       </c>
@@ -3605,16 +3601,16 @@
       </c>
       <c r="J21" s="67"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="100" t="str">
         <f>IF(ISERROR(MATCH(B22,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B22,PriceList!A:A,0)))</f>
         <v>PC1221def</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="162"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="101">
         <v>1</v>
       </c>
@@ -3631,16 +3627,16 @@
       </c>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="100" t="str">
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B23,PriceList!A:A,0)))</f>
         <v>PC1221gh</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="101">
         <v>1</v>
       </c>
@@ -3657,14 +3653,14 @@
       </c>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="100" t="str">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B24,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -3677,14 +3673,14 @@
       </c>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="100" t="str">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B25,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="162"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -3697,14 +3693,14 @@
       </c>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="100" t="str">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B26,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="162"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -3717,14 +3713,14 @@
       </c>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="100" t="str">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
       <c r="E27" s="101"/>
       <c r="F27" s="102">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -3737,14 +3733,14 @@
       </c>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="100" t="str">
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B28,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="162"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="101"/>
       <c r="F28" s="102">
         <f>IF(ISERROR(MATCH(B28,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B28,PriceList!A:A,0)))</f>
@@ -3757,14 +3753,14 @@
       </c>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="100" t="str">
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B29,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="162"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="101"/>
       <c r="F29" s="102">
         <f>IF(ISERROR(MATCH(B29,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B29,PriceList!A:A,0)))</f>
@@ -3777,14 +3773,14 @@
       </c>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="100" t="str">
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B30,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="162"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="101"/>
       <c r="F30" s="102">
         <f>IF(ISERROR(MATCH(B30,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B30,PriceList!A:A,0)))</f>
@@ -3797,14 +3793,14 @@
       </c>
       <c r="J30" s="67"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="100" t="str">
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B31,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="162"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="101"/>
       <c r="F31" s="102">
         <f>IF(ISERROR(MATCH(B31,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B31,PriceList!A:A,0)))</f>
@@ -3817,14 +3813,14 @@
       </c>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="100" t="str">
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B32,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B32" s="160"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="162"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="101"/>
       <c r="F32" s="102">
         <f>IF(ISERROR(MATCH(B32,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B32,PriceList!A:A,0)))</f>
@@ -3837,14 +3833,14 @@
       </c>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="100" t="str">
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B33,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B33" s="160"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="162"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="101"/>
       <c r="F33" s="102">
         <f>IF(ISERROR(MATCH(B33,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B33,PriceList!A:A,0)))</f>
@@ -3857,14 +3853,14 @@
       </c>
       <c r="J33" s="67"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="104" t="str">
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B34,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="165"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="153"/>
       <c r="E34" s="105"/>
       <c r="F34" s="106">
         <f>IF(ISERROR(MATCH(B34,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B34,PriceList!A:A,0)))</f>
@@ -3877,11 +3873,11 @@
       </c>
       <c r="J34" s="67"/>
     </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="155"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
@@ -3895,13 +3891,13 @@
       </c>
       <c r="J35" s="67"/>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="142" t="s">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="158"/>
       <c r="E36" s="116"/>
       <c r="F36" s="112" t="s">
         <v>91</v>
@@ -3915,13 +3911,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="152" t="s">
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="5"/>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -3934,13 +3930,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="147" t="s">
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="148"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="162"/>
       <c r="E38" s="5"/>
       <c r="F38" s="11" t="s">
         <v>29</v>
@@ -3952,11 +3948,11 @@
       </c>
       <c r="J38" s="69"/>
     </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="147"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="148"/>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="161"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="162"/>
       <c r="E39" s="5"/>
       <c r="F39" s="11" t="s">
         <v>31</v>
@@ -3967,11 +3963,11 @@
       </c>
       <c r="J39" s="67"/>
     </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="147"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="148"/>
+    <row r="40" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="161"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="162"/>
       <c r="E40" s="5"/>
       <c r="F40" s="15" t="s">
         <v>32</v>
@@ -3984,11 +3980,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="149"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="151"/>
+    <row r="41" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="163"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="5"/>
       <c r="F41" s="16" t="s">
         <v>21</v>
@@ -4002,7 +3998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4013,98 +4009,79 @@
       <c r="H42" s="11"/>
       <c r="J42" s="67"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="145" t="s">
+      <c r="F43" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="159"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="146" t="s">
+      <c r="F44" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="141" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="141" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
       <c r="J47" s="67"/>
     </row>
-    <row r="48" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="140" t="s">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
       <c r="J48" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A47:H47"/>
@@ -4116,6 +4093,25 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -4142,20 +4138,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4169,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -4188,7 +4184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -4207,7 +4203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4220,7 @@
       </c>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>59</v>
       </c>
@@ -4254,7 +4250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -4267,7 +4263,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
@@ -4282,7 +4278,7 @@
       <c r="H8" s="36"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
@@ -4297,7 +4293,7 @@
       <c r="H9" s="36"/>
       <c r="J9" s="67"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
@@ -4312,7 +4308,7 @@
       <c r="H10" s="36"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>54</v>
       </c>
@@ -4327,7 +4323,7 @@
       <c r="H11" s="36"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -4361,7 +4357,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4374,7 +4370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
         <v>11</v>
       </c>
@@ -4390,27 +4386,27 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="166" t="s">
+      <c r="F15" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="171"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -4421,15 +4417,15 @@
       <c r="H17" s="36"/>
       <c r="J17" s="67"/>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -4444,15 +4440,15 @@
       </c>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
       <c r="E19" s="97">
         <v>15</v>
       </c>
@@ -4470,15 +4466,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="162"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="101">
         <v>1</v>
       </c>
@@ -4494,11 +4490,11 @@
       </c>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="100"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="162"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="101"/>
       <c r="F21" s="102"/>
       <c r="G21" s="114"/>
@@ -4508,11 +4504,11 @@
       </c>
       <c r="J21" s="67"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="100"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="162"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="101"/>
       <c r="F22" s="102"/>
       <c r="G22" s="114"/>
@@ -4522,11 +4518,11 @@
       </c>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="100"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="101"/>
       <c r="F23" s="102"/>
       <c r="G23" s="114"/>
@@ -4536,11 +4532,11 @@
       </c>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="100"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="101"/>
       <c r="F24" s="102"/>
       <c r="G24" s="114"/>
@@ -4550,11 +4546,11 @@
       </c>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="100"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="162"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102"/>
       <c r="G25" s="114"/>
@@ -4564,11 +4560,11 @@
       </c>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="100"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="162"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="101"/>
       <c r="F26" s="102"/>
       <c r="G26" s="114"/>
@@ -4578,11 +4574,11 @@
       </c>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="105"/>
       <c r="F27" s="106"/>
       <c r="G27" s="115"/>
@@ -4592,11 +4588,11 @@
       </c>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="181"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="175"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="19" t="s">
         <v>24</v>
       </c>
@@ -4610,13 +4606,13 @@
       </c>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="142" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
       <c r="E29" s="118"/>
       <c r="F29" s="112" t="s">
         <v>91</v>
@@ -4630,13 +4626,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="152" t="s">
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="154"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
         <v>27</v>
@@ -4649,13 +4645,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="147" t="s">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="148"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
         <v>29</v>
@@ -4667,11 +4663,11 @@
       </c>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="176"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
         <v>31</v>
@@ -4682,11 +4678,11 @@
       </c>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
+    <row r="33" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="176"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="15" t="s">
         <v>32</v>
@@ -4699,11 +4695,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="178"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="180"/>
+    <row r="34" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="172"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="11"/>
       <c r="F34" s="16" t="s">
         <v>21</v>
@@ -4717,7 +4713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4728,50 +4724,50 @@
       <c r="H35" s="11"/>
       <c r="J35" s="67"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="141" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="145" t="s">
+      <c r="F36" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
       <c r="J36" s="70"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="141" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="171" t="s">
+      <c r="F37" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
       <c r="J37" s="69"/>
     </row>
-    <row r="38" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="140" t="s">
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4782,7 +4778,7 @@
       <c r="H39" s="11"/>
       <c r="J39" s="70"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>40</v>
       </c>
@@ -4795,7 +4791,7 @@
       <c r="H40" s="18"/>
       <c r="J40" s="70"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4806,25 +4802,25 @@
       <c r="H41" s="11"/>
       <c r="J41" s="67"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="169" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
       <c r="J42" s="67"/>
     </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="170" t="str">
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="180" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="170"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4834,7 +4830,7 @@
       <c r="H43" s="31"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>54</v>
       </c>
@@ -4851,7 +4847,7 @@
       </c>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
         <v>5</v>
       </c>
@@ -4868,7 +4864,7 @@
       </c>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>6</v>
       </c>
@@ -4880,7 +4876,7 @@
       <c r="H46" s="35"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42" t="s">
         <v>7</v>
       </c>
@@ -4896,6 +4892,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -4912,16 +4918,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4943,20 +4939,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="36" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4971,7 +4967,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
@@ -5014,7 +5010,7 @@
       </c>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5085,7 @@
       <c r="E11" s="49"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
@@ -5100,7 +5096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="D14" s="35"/>
       <c r="J14" s="62" t="s">
@@ -5134,22 +5130,22 @@
       <c r="E15" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="166" t="s">
+      <c r="F15" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
       <c r="J16" s="68" t="s">
         <v>65</v>
       </c>
@@ -5161,11 +5157,11 @@
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="75" t="s">
         <v>19</v>
       </c>
@@ -5180,16 +5176,16 @@
       </c>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="str">
         <f>IF(ISERROR(MATCH(B19,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B19,PriceList!A:A,0)))</f>
         <v>PC1221</v>
       </c>
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
       <c r="E19" s="85">
         <v>15</v>
       </c>
@@ -5216,8 +5212,8 @@
       <c r="B20" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="89">
         <v>1</v>
       </c>
@@ -5242,8 +5238,8 @@
       <c r="B21" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="89">
         <v>1</v>
       </c>
@@ -5268,8 +5264,8 @@
       <c r="B22" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
       <c r="E22" s="89">
         <v>1</v>
       </c>
@@ -5292,8 +5288,8 @@
         <v/>
       </c>
       <c r="B23" s="182"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90">
         <f>IF(ISERROR(MATCH(B23,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B23,PriceList!A:A,0)))</f>
@@ -5312,8 +5308,8 @@
         <v/>
       </c>
       <c r="B24" s="182"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90">
         <f>IF(ISERROR(MATCH(B24,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B24,PriceList!A:A,0)))</f>
@@ -5332,8 +5328,8 @@
         <v/>
       </c>
       <c r="B25" s="182"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="134"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90">
         <f>IF(ISERROR(MATCH(B25,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B25,PriceList!A:A,0)))</f>
@@ -5352,8 +5348,8 @@
         <v/>
       </c>
       <c r="B26" s="182"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90">
         <f>IF(ISERROR(MATCH(B26,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B26,PriceList!A:A,0)))</f>
@@ -5371,9 +5367,9 @@
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),"",INDEX(PriceList!B:B,MATCH(B27,PriceList!A:A,0)))</f>
         <v/>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="93"/>
       <c r="F27" s="94">
         <f>IF(ISERROR(MATCH(B27,PriceList!A:A,0)),0,INDEX(PriceList!C:C,MATCH(B27,PriceList!A:A,0)))</f>
@@ -5387,10 +5383,10 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -5404,13 +5400,13 @@
       </c>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="142" t="s">
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
       <c r="E29" s="117"/>
       <c r="F29" s="42" t="s">
         <v>91</v>
@@ -5424,13 +5420,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="152" t="s">
+    <row r="30" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="154"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35" t="s">
         <v>27</v>
@@ -5444,12 +5440,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="148"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35" t="s">
         <v>29</v>
@@ -5461,11 +5457,11 @@
       </c>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="176"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35" t="s">
         <v>31</v>
@@ -5475,11 +5471,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
+    <row r="33" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="176"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="35"/>
       <c r="F33" s="40" t="s">
         <v>32</v>
@@ -5492,11 +5488,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="178"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="180"/>
+    <row r="34" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="172"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="35"/>
       <c r="F34" s="41" t="s">
         <v>21</v>
@@ -5510,7 +5506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5522,49 +5518,49 @@
       <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="135" t="s">
+      <c r="A36" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="135" t="s">
+      <c r="F36" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
       <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="135" t="s">
+      <c r="A37" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="190" t="s">
+      <c r="F37" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
       <c r="J37" s="69"/>
     </row>
-    <row r="38" spans="1:10" s="36" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A38" s="189" t="s">
+    <row r="38" spans="1:10" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -5574,7 +5570,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>40</v>
       </c>
@@ -5586,7 +5582,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5598,24 +5594,24 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
       <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="188" t="str">
+      <c r="A43" s="183" t="str">
         <f>A1</f>
         <v>[Company Name]</v>
       </c>
-      <c r="B43" s="188"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -5625,7 +5621,7 @@
       <c r="H43" s="31"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>54</v>
       </c>
@@ -5642,7 +5638,7 @@
       </c>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
         <v>5</v>
       </c>
@@ -5659,7 +5655,7 @@
       </c>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5667,7 @@
       <c r="H46" s="35"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42" t="s">
         <v>7</v>
       </c>
@@ -5686,16 +5682,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
@@ -5712,6 +5698,16 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -5735,15 +5731,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>44</v>
       </c>
@@ -5757,13 +5753,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
       <c r="E2" s="70"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -5777,7 +5773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -5805,7 +5801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -5827,7 +5823,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -5835,7 +5831,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -5843,7 +5839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -5851,160 +5847,160 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="70"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="E12" s="70"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="E13" s="70"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -6023,167 +6019,167 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="28" customWidth="1"/>
     <col min="2" max="2" width="76" style="28" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="5"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="24"/>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="29" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="25"/>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="25"/>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="25"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="25"/>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="25"/>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="122" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="27"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="123" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
